--- a/biology/Médecine/Sadok_Boussofara/Sadok_Boussofara.xlsx
+++ b/biology/Médecine/Sadok_Boussofara/Sadok_Boussofara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sadok Boussofara (الصادق بوصفارة), né le 5 décembre 1906 à Mahdia et décédé le 4 novembre 1998 à Hammam Lif, est un médecin et militant nationaliste tunisien.
 </t>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est à l'occasion de ses études au Collège Sadiki et au lycée Carnot qu'il est sensibilisé aux idées nationalistes qui germent alors au sein de l'élite tunisienne. Il poursuit des études de médecine à Paris et devient médecin diplômé d'État en 1933. 
 Pendant son séjour à Paris, il participe activement aux diverses associations humanitaires et nationalistes, notamment celle des étudiants nord-africains dont il devient le vice-président. Il crée en cette qualité un restaurant qui leur est destiné, au numéro 85 du boulevard Saint-Michel à Paris. Au cours de ces années, il côtoie de nombreuses figures du mouvement national tunisien comme Habib Bourguiba, Bahri Guiga, Slimane Ben Slimane et Tahar Sfar dont il est très proche.
@@ -544,7 +558,9 @@
           <t>Militant nationaliste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En parallèle de son métier de médecin, il poursuit des activités politiques et ne cache pas sa sympathie et son soutien au mouvement national. Il utilise son statut de médecin pour sensibiliser les populations du Sahel à l'importance du mouvement national et crée, à partir de 1934, des cellules du Néo-Destour dans la région d'Essouassi.
 Il ouvre un cabinet privé à Hammam Lif en 1936, ville où il s'installe définitivement, et poursuit ses activités au sein du mouvement national tout en s'impliquant dans la vie sociale de la ville. Recherchant toujours le consensus entre les différentes tendances du mouvement national, il œuvre au rapprochement entre les partisans du Destour et du Néo-Destour, en participant à de nombreuses réunions regroupant notamment Abdelaziz Thâalbi, Habib Bourguiba et Salah Ben Youssef.
@@ -579,7 +595,9 @@
           <t>Œuvres sociales et caritatives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À Essouassi, dans les années 1930, Boussofara prend conscience de la grande misère dans laquelle se trouve la population tunisienne et l'indigence de l'administration coloniale. Il met alors en œuvre tous les moyens dont il dispose pour améliorer la situation humaine et sanitaire des habitants de cette région en faisant appel aux autorités locales et régionales, en récoltant des fonds auprès des notables, etc.  Dès 1936, il instaure, dans son cabinet privé à Hammam Lif, la gratuité des soins tous les vendredis.
 Passionné de sport en général et de football en particulier, qu'il considère comme un outil de socialisation et d'épanouissement de la jeunesse, il fait partie du bureau directeur de l'Espérance sportive de Tunis aux côtés de Chedly Zouiten dans les années 1930. En 1944, il fonde le Club sportif de Hammam Lif qu'il soutient financièrement jusqu'à la fin de sa vie.
